--- a/biology/Microbiologie/Armatimonadota/Armatimonadota.xlsx
+++ b/biology/Microbiologie/Armatimonadota/Armatimonadota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Armatimonadota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Armatimonas qui est le genre type de cet embranchement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Armatimonadota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Armatimonas qui est le genre type de cet embranchement.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé dès 2011 par H. Tamaki et al. sous le nom de « Armatimonadetes »[1]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[2] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Armatimonas, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé dès 2011 par H. Tamaki et al. sous le nom de « Armatimonadetes ». Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Armatimonas, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (31 octobre 2023)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (31 octobre 2023) :
 Armatimonadia Tamaki et al. 2011
 Chthonomonadia Lee et al. 2011
 Fimbriimonadia Im et al. 2012
